--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_307__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_307__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11.41765975952148</c:v>
+                  <c:v>11.41766357421875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.26252746582031</c:v>
@@ -5996,7 +5996,7 @@
                   <c:v>58.2659912109375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.82940673828125</c:v>
+                  <c:v>77.82941436767578</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40.88576507568359</c:v>
@@ -6005,31 +6005,31 @@
                   <c:v>48.53871154785156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.08013916015625</c:v>
+                  <c:v>50.08014678955078</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70.27548980712891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.162841796875</c:v>
+                  <c:v>67.16284942626953</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>38.30775451660156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.97346687316895</c:v>
+                  <c:v>24.97346878051758</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>72.61989593505859</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.64299774169922</c:v>
+                  <c:v>74.64300537109375</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43.25183868408203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.40235137939453</c:v>
+                  <c:v>77.40236663818359</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>103.586296081543</c:v>
@@ -6050,25 +6050,25 @@
                   <c:v>62.17124938964844</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.583740234375</c:v>
+                  <c:v>83.58373260498047</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>55.74987030029297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.64070129394531</c:v>
+                  <c:v>69.64069366455078</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>91.72313690185547</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.07203674316406</c:v>
+                  <c:v>58.07204437255859</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>40.10815048217773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>86.82253265380859</c:v>
+                  <c:v>86.82254028320312</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>56.04781341552734</c:v>
@@ -6104,7 +6104,7 @@
                   <c:v>76.01688385009766</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>71.983154296875</c:v>
+                  <c:v>71.98316192626953</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>89.79212188720703</c:v>
@@ -6137,22 +6137,22 @@
                   <c:v>32.41436767578125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>77.48120880126953</c:v>
+                  <c:v>77.48121643066406</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>77.85073089599609</c:v>
+                  <c:v>77.85072326660156</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>55.47550201416016</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>85.24118804931641</c:v>
+                  <c:v>85.24118041992188</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35.01838302612305</c:v>
+                  <c:v>35.01837921142578</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>83.36849975585938</c:v>
+                  <c:v>83.36849212646484</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>77.11623382568359</c:v>
@@ -6161,10 +6161,10 @@
                   <c:v>73.63450622558594</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>68.38069915771484</c:v>
+                  <c:v>68.38070678710938</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>97.64363098144531</c:v>
+                  <c:v>97.64361572265625</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>69.95155334472656</c:v>
@@ -6203,13 +6203,13 @@
                   <c:v>45.17878723144531</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20.48238945007324</c:v>
+                  <c:v>20.48239135742188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.30620193481445</c:v>
+                  <c:v>37.30619812011719</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>77.52484130859375</c:v>
+                  <c:v>77.52483367919922</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>69.62715911865234</c:v>
@@ -6251,10 +6251,10 @@
                   <c:v>80.00428771972656</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>60.63108062744141</c:v>
+                  <c:v>60.63108825683594</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>60.33808898925781</c:v>
+                  <c:v>60.33809661865234</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>78.78902435302734</c:v>
@@ -6281,7 +6281,7 @@
                   <c:v>76.52527618408203</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>81.56056976318359</c:v>
+                  <c:v>81.56056213378906</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>71.04151916503906</c:v>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>11.41765975952148</v>
+        <v>11.41766357421875</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7075,7 +7075,7 @@
         <v>74.8476</v>
       </c>
       <c r="F5">
-        <v>77.82940673828125</v>
+        <v>77.82941436767578</v>
       </c>
       <c r="G5">
         <v>104</v>
@@ -7171,7 +7171,7 @@
         <v>54.3965</v>
       </c>
       <c r="F8">
-        <v>50.08013916015625</v>
+        <v>50.08014678955078</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>69.0017</v>
       </c>
       <c r="F10">
-        <v>67.162841796875</v>
+        <v>67.16284942626953</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>24.97346687316895</v>
+        <v>24.97346878051758</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>66.7122</v>
       </c>
       <c r="F14">
-        <v>74.64299774169922</v>
+        <v>74.64300537109375</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>80.9817</v>
       </c>
       <c r="F16">
-        <v>77.40235137939453</v>
+        <v>77.40236663818359</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>80.0192</v>
       </c>
       <c r="F23">
-        <v>83.583740234375</v>
+        <v>83.58373260498047</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>79.1164</v>
       </c>
       <c r="F25">
-        <v>69.64070129394531</v>
+        <v>69.64069366455078</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>68.3349</v>
       </c>
       <c r="F27">
-        <v>58.07203674316406</v>
+        <v>58.07204437255859</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>86.82253265380859</v>
+        <v>86.82254028320312</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>75.4286</v>
       </c>
       <c r="F41">
-        <v>71.983154296875</v>
+        <v>71.98316192626953</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>79.5063</v>
       </c>
       <c r="F52">
-        <v>77.48120880126953</v>
+        <v>77.48121643066406</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>78.4419</v>
       </c>
       <c r="F53">
-        <v>77.85073089599609</v>
+        <v>77.85072326660156</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>87.46469999999999</v>
       </c>
       <c r="F55">
-        <v>85.24118804931641</v>
+        <v>85.24118041992188</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>41.0705</v>
       </c>
       <c r="F56">
-        <v>35.01838302612305</v>
+        <v>35.01837921142578</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>83.2594</v>
       </c>
       <c r="F57">
-        <v>83.36849975585938</v>
+        <v>83.36849212646484</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>57.192</v>
       </c>
       <c r="F60">
-        <v>68.38069915771484</v>
+        <v>68.38070678710938</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>96.3043</v>
       </c>
       <c r="F61">
-        <v>97.64363098144531</v>
+        <v>97.64361572265625</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>27.7657</v>
       </c>
       <c r="F74">
-        <v>20.48238945007324</v>
+        <v>20.48239135742188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>37.30620193481445</v>
+        <v>37.30619812011719</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>75.1593</v>
       </c>
       <c r="F76">
-        <v>77.52484130859375</v>
+        <v>77.52483367919922</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>59.318</v>
       </c>
       <c r="F90">
-        <v>60.63108062744141</v>
+        <v>60.63108825683594</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>57.3106</v>
       </c>
       <c r="F91">
-        <v>60.33808898925781</v>
+        <v>60.33809661865234</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>79.904</v>
       </c>
       <c r="F100">
-        <v>81.56056976318359</v>
+        <v>81.56056213378906</v>
       </c>
     </row>
     <row r="101" spans="1:6">
